--- a/DATA_goal/Junction_Flooding_239.xlsx
+++ b/DATA_goal/Junction_Flooding_239.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41671.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>23.93</v>
+        <v>2.39</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16.61</v>
+        <v>1.66</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.25</v>
+        <v>0.43</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>50.48</v>
+        <v>5.05</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>41.77</v>
+        <v>4.18</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.83</v>
+        <v>1.88</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>62.89</v>
+        <v>6.29</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>28.97</v>
+        <v>2.9</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>19.09</v>
+        <v>1.91</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.86</v>
+        <v>1.99</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.83</v>
+        <v>2.08</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.72</v>
+        <v>1.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>26.4</v>
+        <v>2.64</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.54</v>
+        <v>1.55</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.83</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>277.64</v>
+        <v>27.76</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>52.16</v>
+        <v>5.22</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17.28</v>
+        <v>1.73</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>34.74</v>
+        <v>3.47</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>18.05</v>
+        <v>1.81</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>31.16</v>
+        <v>3.12</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.65</v>
+        <v>1.37</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.97</v>
+        <v>1.6</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>20.63</v>
+        <v>2.06</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>55.67</v>
+        <v>5.57</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.68</v>
+        <v>0.97</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>21.61</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41671.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.53</v>
+        <v>0.55</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>17.36</v>
+        <v>1.74</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>29.44</v>
+        <v>2.94</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.47</v>
+        <v>0.65</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.17</v>
+        <v>0.72</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.47</v>
+        <v>0.65</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>91.13</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>18.29</v>
+        <v>1.83</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.43</v>
+        <v>0.64</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13.51</v>
+        <v>1.35</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.88</v>
+        <v>0.49</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.16</v>
+        <v>0.72</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>26.76</v>
+        <v>2.68</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.46</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41671.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.45</v>
+        <v>1.84</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.41</v>
+        <v>1.34</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>39.73</v>
+        <v>3.97</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>32.9</v>
+        <v>3.29</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.52</v>
+        <v>1.45</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>54.34</v>
+        <v>5.43</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.34</v>
+        <v>2.23</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.8</v>
+        <v>1.48</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.91</v>
+        <v>1.59</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.75</v>
+        <v>1.68</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.47</v>
+        <v>2.05</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.21</v>
+        <v>1.22</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>212.42</v>
+        <v>21.24</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>40.31</v>
+        <v>4.03</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>27</v>
+        <v>2.7</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.4</v>
+        <v>1.44</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>26.4</v>
+        <v>2.64</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.51</v>
+        <v>1.05</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.34</v>
+        <v>1.23</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.71</v>
+        <v>1.67</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>48.94</v>
+        <v>4.89</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.48</v>
+        <v>0.75</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41671.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.68</v>
+        <v>1.27</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.19</v>
+        <v>0.92</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>27.29</v>
+        <v>2.73</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.61</v>
+        <v>2.26</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>40.68</v>
+        <v>4.07</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.36</v>
+        <v>1.54</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.75</v>
+        <v>0.68</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.95</v>
+        <v>1.1</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.5</v>
+        <v>1.15</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.08</v>
+        <v>1.41</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.44</v>
+        <v>0.84</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA5" s="4" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>143.76</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>27.82</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>19.34</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>8.09</v>
-      </c>
       <c r="AB5" s="4" t="n">
-        <v>7.25</v>
+        <v>0.72</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.5</v>
+        <v>1.15</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>36.85</v>
+        <v>3.69</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.13</v>
+        <v>0.51</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.45</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41671.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>8.84</v>
+        <v>0.88</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>18.99</v>
+        <v>1.9</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>15.74</v>
+        <v>1.57</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>6.96</v>
+        <v>0.7</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>29.05</v>
+        <v>2.9</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>7.05</v>
+        <v>0.71</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P6" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T6" s="4" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>97.97</v>
-      </c>
       <c r="U6" s="4" t="n">
-        <v>19.42</v>
+        <v>1.94</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>12.95</v>
+        <v>1.29</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>6.95</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>13.68</v>
+        <v>1.37</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>26.3</v>
+        <v>2.63</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41671.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O7" s="4" t="n">
         <v>0.62</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>17.15</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>14.21</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>25.35</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>6.24</v>
-      </c>
       <c r="P7" s="4" t="n">
-        <v>8.84</v>
+        <v>0.88</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>87.66</v>
+        <v>8.77</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>17.48</v>
+        <v>1.75</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>6.27</v>
+        <v>0.63</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>4.57</v>
+        <v>0.46</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>5.35</v>
+        <v>0.54</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>7.25</v>
+        <v>0.73</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>22.89</v>
+        <v>2.29</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>3.21</v>
+        <v>0.32</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41671.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>30.97</v>
+        <v>3.1</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>25.63</v>
+        <v>2.56</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>11.27</v>
+        <v>1.13</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>42</v>
+        <v>4.2</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>17.34</v>
+        <v>1.73</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>12.46</v>
+        <v>1.25</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>15.94</v>
+        <v>1.59</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>163.2</v>
+        <v>16.32</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>31.27</v>
+        <v>3.13</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>21.03</v>
+        <v>2.1</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>11.19</v>
+        <v>1.12</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>20.55</v>
+        <v>2.05</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>9.52</v>
+        <v>0.95</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>13.09</v>
+        <v>1.31</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>37.9</v>
+        <v>3.79</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41671.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>21.43</v>
+        <v>2.14</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>15.93</v>
+        <v>1.59</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>46.46</v>
+        <v>4.65</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>38.43</v>
+        <v>3.84</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>16.86</v>
+        <v>1.69</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>64.19</v>
+        <v>6.42</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>25.94</v>
+        <v>2.59</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11.58</v>
+        <v>1.16</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>17.32</v>
+        <v>1.73</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>18.67</v>
+        <v>1.87</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>19.68</v>
+        <v>1.97</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>16.77</v>
+        <v>1.68</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>23.92</v>
+        <v>2.39</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>247.91</v>
+        <v>24.79</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>46.87</v>
+        <v>4.69</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>15.48</v>
+        <v>1.55</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>31.62</v>
+        <v>3.16</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>16.72</v>
+        <v>1.67</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.15</v>
+        <v>0.22</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>31.43</v>
+        <v>3.14</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>12.07</v>
+        <v>1.21</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>14.19</v>
+        <v>1.42</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>19.63</v>
+        <v>1.96</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>58.2</v>
+        <v>5.82</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>19.35</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="10">
@@ -1487,10 +1487,10 @@
         <v>41671.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>0</v>
@@ -1505,85 +1505,85 @@
         <v>0</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="J10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="W10" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="K10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="X10" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="Y10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AG10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="4" t="n">
         <v>0.01</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.11</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_239.xlsx
+++ b/DATA_goal/Junction_Flooding_239.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41671.34027777778</v>
+        <v>44920.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.39</v>
+        <v>1.73</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.66</v>
+        <v>1.14</v>
       </c>
       <c r="D2" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>0.43</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="G2" s="4" t="n">
+      <c r="O2" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P2" s="4" t="n">
         <v>1.88</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="Q2" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="X2" s="4" t="n">
         <v>1.24</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>27.76</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.81</v>
-      </c>
       <c r="Y2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.12</v>
+        <v>2.15</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.53</v>
+        <v>1.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.6</v>
+        <v>1.18</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.06</v>
+        <v>1.5</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.57</v>
+        <v>3.76</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.97</v>
+        <v>0.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.16</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41671.34722222222</v>
+        <v>44920.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.83</v>
+        <v>0.19</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.55</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G3" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.65</v>
-      </c>
       <c r="H3" s="4" t="n">
-        <v>2.94</v>
+        <v>1.15</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1</v>
+        <v>0.23</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.42</v>
+        <v>0.08</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.08</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.15</v>
       </c>
       <c r="N3" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="P3" s="4" t="n">
         <v>0.21</v>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.91</v>
-      </c>
       <c r="Q3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AC3" s="4" t="n">
         <v>0.16</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.57</v>
-      </c>
       <c r="AD3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.15</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.68</v>
+        <v>1.13</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.33</v>
+        <v>0.06</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.75</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41671.35416666666</v>
+        <v>44920.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.84</v>
+        <v>1.1</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I4" s="4" t="n">
         <v>1.34</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>2.23</v>
-      </c>
       <c r="J4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.58</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.48</v>
+        <v>0.84</v>
       </c>
       <c r="L4" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W4" s="4" t="n">
         <v>1.59</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>21.24</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>2.7</v>
-      </c>
       <c r="X4" s="4" t="n">
-        <v>1.44</v>
+        <v>0.83</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.64</v>
+        <v>1.49</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.18</v>
+        <v>0.71</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.05</v>
+        <v>0.64</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.23</v>
+        <v>0.75</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.89</v>
+        <v>2.74</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.44</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41671.36111111111</v>
+        <v>44920.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.92</v>
+        <v>1.12</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.73</v>
+        <v>3.34</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.26</v>
+        <v>2.71</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.07</v>
+        <v>4.54</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.54</v>
+        <v>1.86</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.82</v>
       </c>
       <c r="K5" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q5" s="4" t="n">
         <v>1.02</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.84</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.38</v>
+        <v>17.58</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.78</v>
+        <v>3.36</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.92</v>
+        <v>1.11</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.86</v>
+        <v>2.25</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.99</v>
+        <v>1.18</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.93</v>
+        <v>2.23</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.88</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.85</v>
+        <v>1.03</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.69</v>
+        <v>4.13</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.15</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41671.36805555555</v>
+        <v>44920.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.88</v>
+        <v>22.58</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.64</v>
+        <v>16.69</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.9</v>
+        <v>49.1</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.57</v>
+        <v>40.15</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.7</v>
+        <v>17.77</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.9</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.07</v>
+        <v>27.34</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.47</v>
+        <v>12.16</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.71</v>
+        <v>18</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.76</v>
+        <v>19.7</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.8</v>
+        <v>20.79</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.22</v>
+        <v>5.68</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>17.67</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.98</v>
+        <v>25.16</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.59</v>
+        <v>14.87</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.72</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.85</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>261.65</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.94</v>
+        <v>49.4</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.64</v>
+        <v>16.31</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.29</v>
+        <v>33.23</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>17.42</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.09</v>
+        <v>2.58</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.37</v>
+        <v>33.18</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>14.41</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.51</v>
+        <v>12.76</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.59</v>
+        <v>15</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.8</v>
+        <v>20.68</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.63</v>
+        <v>61.6</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.36</v>
+        <v>9.19</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41671.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41671.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>16.32</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41671.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>24.79</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41671.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41671.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>47</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>4.05</v>
+        <v>20.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_239.xlsx
+++ b/DATA_goal/Junction_Flooding_239.xlsx
@@ -446,14 +446,14 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
@@ -462,7 +462,7 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
@@ -470,10 +470,10 @@
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44920.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.73</v>
+        <v>17.3</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.41</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.68</v>
+        <v>36.82</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.89</v>
+        <v>28.93</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.61</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.21</v>
+        <v>42.1</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.09</v>
+        <v>20.94</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.85</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.45</v>
+        <v>14.48</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.5</v>
+        <v>15.03</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>19.86</v>
+        <v>198.65</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.76</v>
+        <v>37.58</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.45</v>
+        <v>24.54</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.43</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.15</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.51</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.1</v>
+        <v>11.03</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.83</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.5</v>
+        <v>15.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.76</v>
+        <v>37.61</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44920.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.52</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.05</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.7</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.41</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>1.57</v>
+        <v>15.69</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.7</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.27</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44920.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.1</v>
+        <v>11.05</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.83</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.4</v>
+        <v>23.97</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.91</v>
+        <v>19.14</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.05</v>
+        <v>30.47</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.76</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.44</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.05</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.13</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.51</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>12.43</v>
+        <v>124.25</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.4</v>
+        <v>24.02</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.87</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.32</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.93</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.05</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.38</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.49</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.74</v>
+        <v>27.41</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.38</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44920.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.2</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.34</v>
+        <v>33.4</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.71</v>
+        <v>27.09</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.54</v>
+        <v>45.42</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.86</v>
+        <v>18.62</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.07</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.4</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.41</v>
+        <v>14.1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.2</v>
+        <v>12.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.71</v>
+        <v>17.06</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>17.58</v>
+        <v>175.79</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.36</v>
+        <v>33.62</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.25</v>
+        <v>22.48</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.77</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.91</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.23</v>
+        <v>22.3</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.81</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.76</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.29</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.4</v>
+        <v>14.04</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.13</v>
+        <v>41.3</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.2</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_239.xlsx
+++ b/DATA_goal/Junction_Flooding_239.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44920.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>17.3</v>
+        <v>17.295</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.41</v>
+        <v>11.407</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.99</v>
+        <v>3.988</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>36.82</v>
+        <v>36.822</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>28.93</v>
+        <v>28.934</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.61</v>
+        <v>13.611</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>42.1</v>
+        <v>42.104</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>20.94</v>
+        <v>20.942</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>8.632</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.85</v>
+        <v>12.848</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.48</v>
+        <v>14.482</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.03</v>
+        <v>15.027</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.34</v>
+        <v>4.344</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.53</v>
+        <v>13.535</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.8</v>
+        <v>18.799</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.72</v>
+        <v>11.717</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.39</v>
+        <v>3.386</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.23</v>
+        <v>2.226</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>198.65</v>
+        <v>198.649</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>37.58</v>
+        <v>37.584</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.49</v>
+        <v>12.493</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>24.54</v>
+        <v>24.537</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.43</v>
+        <v>12.435</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.15</v>
+        <v>3.148</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>21.51</v>
+        <v>21.511</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.03</v>
+        <v>11.035</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.06</v>
+        <v>10.064</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.83</v>
+        <v>11.833</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.03</v>
+        <v>15.025</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>3.317</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>37.61</v>
+        <v>37.614</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.76</v>
+        <v>6.758</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.62</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="3">
@@ -759,58 +759,58 @@
         <v>44920.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.92</v>
+        <v>1.922</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.326</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.02</v>
+        <v>4.016</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.4</v>
+        <v>2.402</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.52</v>
+        <v>1.516</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>11.52</v>
+        <v>11.522</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.33</v>
+        <v>2.327</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.83</v>
+        <v>0.832</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.57</v>
+        <v>1.565</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.48</v>
+        <v>1.484</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.51</v>
+        <v>0.511</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.5</v>
+        <v>1.504</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.05</v>
+        <v>2.051</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.7</v>
+        <v>1.696</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.41</v>
+        <v>1.408</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.66</v>
+        <v>0.657</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>15.69</v>
@@ -819,43 +819,43 @@
         <v>4.7</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.39</v>
+        <v>1.388</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.81</v>
+        <v>2.808</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.21</v>
+        <v>1.206</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.86</v>
+        <v>0.864</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>5.24</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.23</v>
+        <v>1.226</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.37</v>
+        <v>1.367</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.56</v>
+        <v>1.563</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>1.52</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.27</v>
+        <v>11.269</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.555</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.74</v>
+        <v>1.745</v>
       </c>
     </row>
     <row r="4">
@@ -866,100 +866,100 @@
         <v>11.05</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.83</v>
+        <v>7.833</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.14</v>
+        <v>1.142</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>23.97</v>
+        <v>23.967</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.14</v>
+        <v>19.144</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>8.696</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>30.47</v>
+        <v>30.469</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>13.38</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.76</v>
+        <v>5.759</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.44</v>
+        <v>8.435</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>9.608000000000001</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.05</v>
+        <v>10.055</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.77</v>
+        <v>2.774</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.65</v>
+        <v>8.647</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.13</v>
+        <v>12.129</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.51</v>
+        <v>7.507</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.992</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.672</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>124.25</v>
+        <v>124.253</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>24.02</v>
+        <v>24.016</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.98</v>
+        <v>7.982</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>15.87</v>
+        <v>15.867</v>
       </c>
       <c r="X4" s="4" t="n">
         <v>8.32</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.58</v>
+        <v>1.576</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.93</v>
+        <v>14.925</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>7.05</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.38</v>
+        <v>6.384</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.49</v>
+        <v>7.487</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.03</v>
+        <v>10.026</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>27.41</v>
+        <v>27.408</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.38</v>
+        <v>4.378</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.98</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44920.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>40.15</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.77</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>67.73999999999999</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.79</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.16</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.87</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>261.65</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.23</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.42</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>33.18</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.68</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>61.6</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_239.xlsx
+++ b/DATA_goal/Junction_Flooding_239.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44920.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.37</v>
+        <v>15.374</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.2</v>
+        <v>11.204</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.07</v>
+        <v>1.071</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>33.4</v>
+        <v>33.405</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.09</v>
+        <v>27.087</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.1</v>
+        <v>12.098</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>45.42</v>
+        <v>45.416</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.62</v>
+        <v>18.615</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.196</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.07</v>
+        <v>12.065</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.4</v>
+        <v>13.405</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.1</v>
+        <v>14.105</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.86</v>
+        <v>3.864</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.03</v>
+        <v>12.031</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.06</v>
+        <v>17.056</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.24</v>
+        <v>10.241</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.796</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>175.79</v>
+        <v>175.792</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>33.62</v>
+        <v>33.616</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.1</v>
+        <v>11.105</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>22.48</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.77</v>
+        <v>11.773</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.91</v>
+        <v>1.908</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.3</v>
+        <v>22.299</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.81</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.76</v>
+        <v>8.757999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.29</v>
+        <v>10.286</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.04</v>
+        <v>14.043</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>41.3</v>
+        <v>41.303</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.2</v>
+        <v>6.196</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.88</v>
+        <v>13.884</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44920.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>40.15</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>67.73999999999999</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>20.79</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>261.65</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>33.23</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>17.42</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>33.18</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>20.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_239.xlsx
+++ b/DATA_goal/Junction_Flooding_239.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44920.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.374</v>
+        <v>15.37</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.204</v>
+        <v>11.2</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.071</v>
+        <v>1.07</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>33.405</v>
+        <v>33.4</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.087</v>
+        <v>27.09</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.098</v>
+        <v>12.1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>45.416</v>
+        <v>45.42</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.615</v>
+        <v>18.62</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.196</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.065</v>
+        <v>12.07</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.405</v>
+        <v>13.4</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.105</v>
+        <v>14.1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.864</v>
+        <v>3.86</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.031</v>
+        <v>12.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.056</v>
+        <v>17.06</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.241</v>
+        <v>10.24</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.796</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>175.792</v>
+        <v>175.79</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>33.616</v>
+        <v>33.62</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.105</v>
+        <v>11.1</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>22.48</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.773</v>
+        <v>11.77</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.908</v>
+        <v>1.91</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.299</v>
+        <v>22.3</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.808999999999999</v>
+        <v>9.81</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.757999999999999</v>
+        <v>8.76</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.286</v>
+        <v>10.29</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.043</v>
+        <v>14.04</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>41.303</v>
+        <v>41.3</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.196</v>
+        <v>6.2</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.884</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44920.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>40.15</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.77</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>67.73999999999999</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.79</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.16</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.87</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>261.65</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.23</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.42</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>33.18</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.68</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>61.6</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.39</v>
+        <v>13.88</v>
       </c>
     </row>
   </sheetData>
